--- a/layout.xlsx
+++ b/layout.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenServer\domains\parser.loc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985"/>
   </bookViews>
@@ -19,59 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Производитель</t>
-  </si>
-  <si>
-    <t>Артикул</t>
-  </si>
-  <si>
-    <t>Наличие</t>
-  </si>
-  <si>
-    <t>Вес</t>
-  </si>
-  <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
-    <t>Изображение</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Путь</t>
-  </si>
-  <si>
-    <t>Прочее</t>
-  </si>
-  <si>
-    <t>Материал</t>
-  </si>
-  <si>
-    <t>Техника</t>
-  </si>
-  <si>
-    <t>Описание</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>subcategory_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>plug</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>meta_keywords</t>
+  </si>
+  <si>
+    <t>meta_description</t>
+  </si>
+  <si>
+    <t>meta_title</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>technic</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image_path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +103,12 @@
     </fill>
     <fill>
       <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,9 +123,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,69 +440,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="11.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
